--- a/Src/Assets/Common/Tables/Tables/Versus.xlsx
+++ b/Src/Assets/Common/Tables/Tables/Versus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game-maker\1-NewClap\CCA\Src\Clap\Assets\Common\Tables\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game-maker\0_CCA_new\Src\Assets\Common\Tables\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE3BEF7-66CE-49B2-BE3F-3307D3F1211F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2FBADD-A6C9-4A89-ACFF-70BD469EBCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attack_Defend_Counter_2dArray" sheetId="1" r:id="rId1"/>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>laser_overclocked_apocalypse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RPG</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -124,6 +120,10 @@
   </si>
   <si>
     <t>Attack/Counter&amp;Block</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>laser_cannon</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -552,7 +552,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -567,31 +567,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -599,28 +599,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>24</v>
-      </c>
       <c r="I2" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -628,28 +628,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -657,28 +657,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>24</v>
-      </c>
       <c r="I4" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -686,28 +686,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -715,28 +715,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -744,28 +744,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -773,28 +773,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -802,28 +802,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -831,144 +831,144 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Src/Assets/Common/Tables/Tables/Versus.xlsx
+++ b/Src/Assets/Common/Tables/Tables/Versus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game-maker\0_CCA_new\Src\Assets\Common\Tables\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CCA\Src\Assets\Common\Tables\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2FBADD-A6C9-4A89-ACFF-70BD469EBCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649A8B01-749B-4614-A571-E2A5C5B4A7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6000" yWindow="4110" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attack_Defend_Counter_2dArray" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -87,10 +90,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>severance_parry</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>rebounce</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -124,6 +123,10 @@
   </si>
   <si>
     <t>laser_cannon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deflect</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -552,7 +555,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -567,7 +570,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>12</v>
@@ -579,19 +582,19 @@
         <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -599,28 +602,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>23</v>
-      </c>
       <c r="I2" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -628,28 +631,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -657,28 +660,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>23</v>
-      </c>
       <c r="I4" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -686,28 +689,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -715,28 +718,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -744,28 +747,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -773,28 +776,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -802,28 +805,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -831,57 +834,57 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -889,28 +892,28 @@
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -918,28 +921,28 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -947,28 +950,28 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
